--- a/biology/Zoologie/Glandirana_rugosa/Glandirana_rugosa.xlsx
+++ b/biology/Zoologie/Glandirana_rugosa/Glandirana_rugosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glandirana rugosa est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glandirana rugosa est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce était originellement endémique du Japon. Elle se rencontre sur Honshū, Shikoku et Kyūshū[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce était originellement endémique du Japon. Elle se rencontre sur Honshū, Shikoku et Kyūshū.
 Elle a été introduite à la fin du XIXe siècle à Hawaï afin de maîtriser l'expansion d'insectes introduits.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quatre lignées génétiques ont été identifiées[2] qui correspondent peut-être à des espèces.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quatre lignées génétiques ont été identifiées qui correspondent peut-être à des espèces.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Temminck &amp; Schlegel, 1838 : Fauna Japonica sive Descriptio animalium, quae in itinere per Japonianum, jussu et auspiciis superiorum, qui summum in India Batava Imperium tenent, suscepto, annis 1823-1830 colleget, notis observationibus et adumbrationibus illustratis, vol. 3 (Chelonia, Ophidia, Sauria, Batrachia). Leiden: J. G. Lalau.</t>
         </is>
